--- a/DOM_Banner/output/dept0713/Paul R Langlais_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Paul R Langlais_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Drug Discovery Department, Moffit Cancer Center, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386317149</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A yeast-based system to study SARS-CoV-2 Mpro structure and to identify nirmatrelvir resistant mutations</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>PLOS Pathogens</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.ppat.1011592</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37651467</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.ppat.1011592</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Clinical Translational Sciences,; Department of Medicine and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medical &amp; Molecular Genetics, Indiana University, Indianapolis, Indiana;; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medicine and; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Department of Medicine and; Department of Medicine and; Department of Medicine and; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; College of Veterinary Medicine, Northwest A &amp; F University, Yangling, China;; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Henry Ford Pancreatic Cancer Center, Henry Ford Hospital, Detroit, Michigan;; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Department of Medicine and; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Department of Pharmacy Practice and Science, R. Ken Coit College of Pharmacy, and; Dalhousie University, 3688, Physiology and Biophysics, Halifax, Nova Scotia, Canada; Department of Medicine, Ottawa Hospital Research Institute, Ottawa, Ontario, Canada;; University of Arizona, Medicine, Tucson, United States; Department of Medicine and; University of California San Diego, 8784, Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, La Jolla, California, United States; Department of Medicine and; Department of Medicine, National Jewish Health, Denver, Colorado; Richard L. Roudebush Veterans Affairs Medical Center, Indianapolis, Indiana; and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medicine and</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324027830</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>SOX17 Deficiency Mediates Pulmonary Hypertension: At the Crossroads of Sex, Metabolism, and Genetics</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202203-0450oc</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36913491</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202203-0450oc</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Cancer Biology Program, University of Arizona Cancer Center 2 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona 3 , Tucson, AZ, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; Cancer Biology Program, University of Arizona Cancer Center 2 , Tucson, AZ, USA; Johns Hopkins Physical Sciences-Oncology Center, Johns Hopkins University 7 , Baltimore, MD, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona 3 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321747788</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>EVL and MIM/MTSS1 regulate actin cytoskeletal remodeling to promote dendritic filopodia in neurons</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Cell Biology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Rockefeller University Press</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1083/jcb.202106081</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36828364</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1083/jcb.202106081</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Cancer Biology Graduate Program, University of Arizona 1 , Tucson, AZ, USA; Cancer Biology Graduate Program, University of Arizona 1 , Tucson, AZ, USA; Cancer Biology Graduate Program, University of Arizona 1 , Tucson, AZ, USA; Department of Cell and Molecular Pharmacology and Experimental Therapeutics, https://ror.org/012jban78Medical University of South Carolina, Charleston, SC, USA; Department of Cell and Molecular Pharmacology and Experimental Therapeutics, https://ror.org/012jban78Medical University of South Carolina, Charleston, SC, USA; Department of Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA; University of Arizona Cancer Center 4 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA; University of Arizona Cancer Center 4 , Tucson, AZ, USA; University of Arizona Cancer Center 4 , Tucson, AZ, USA; University of Arizona Cancer Center 4 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA; Department of Cellular and Molecular Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA; Department of Cellular and Molecular Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA; Department of Cellular and Molecular Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA; Department of Cellular and Molecular Medicine, https://ror.org/03m2x1q45University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365136044</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>PIM1 phosphorylates ABI2 to enhance actin dynamics and promote tumor invasion</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Cell Biology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Rockefeller University Press</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1083/jcb.202208136</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37042842</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1083/jcb.202208136</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724; Department of Pharmacology, University of Arizona, Tucson, AZ 85724; Department of Pharmacology, University of Arizona, Tucson, AZ 85724; Division of Biology, Indian Institute of Science Education and Research, Tirupati 517507, India; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724; Department of Pharmacology, University of Arizona, Tucson, AZ 85724; Department of Medicine, University of Arizona, Tucson, AZ 85724; Department of Biomedical Engineering, Ohio State University, Columbus, OH 43210; Department of Pathology, University of Alabama at Birmingham, Birmingham, AL 35294; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367049053</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Endothelial tip/stalk cell selection requires BMP9-induced β&lt;sub&gt;IV&lt;/sub&gt;-spectrin expression during sprouting angiogenesis</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Molecular Biology of the Cell</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Society for Cell Biology</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1091/mbc.e23-02-0064</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37126382</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1091/mbc.e23-02-0064</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Asthma and Airway Disease Research Center, Tucson, AZ 85724, USA; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385461556</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during Mycoplasma pneumoniae Infection in Mouse Tracheal Epithelial Cells</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells12151984</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37566063</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells12151984</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Pharmacology University of Arizona  Tucson Arizona USA; Department of Chemistry &amp;amp; Biochemistry University of Arizona  Tucson Arizona USA; Department of Chemistry &amp;amp; Biochemistry University of Arizona  Tucson Arizona USA; Department of Pharmacology University of Arizona  Tucson Arizona USA; Department of Medicine University of Arizona  Tucson Arizona USA; Department of Pathology, University of Alabama at Birmingham, Birmingham, Alabama, USA; Department of Pharmacology, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386529146</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Beta &lt;scp&gt;IV&lt;/scp&gt; spectrin inhibits the metastatic growth of melanoma by suppressing &lt;scp&gt;VEGFR2&lt;/scp&gt;‐driven tumor angiogenesis</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Cancer Medicine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/cam4.6522</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37680049</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/cam4.6522</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365793553</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Abstract 1628: Endothelial tip and stalk cell specification requires BMP9-induced βIV-spectrin expression during nascent vessel sprouting</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Biological Chemistry</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jbc.2023.104044</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jbc.2023.104044</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Alabama Birmingham; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366770738</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Structural remodeling of the endoplasmic reticulum in response to extracellular signals requires αTAT1-induced microtubule acetylation</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.04.20.537623</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37131821</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.04.20.537623</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Pulmonary Critical Care Sleep dept, Baylor College of Medicine, Houston, TX, United States; Pulmonary Critical Care Sleep dept, Baylor College of Medicine, Houston, TX, United States; 2Proteomics Lab, Department of Medicine, University of Arizona, University of Arizona, Tucson, AZ, United States; Pulmonary, Weill Cornell Medical College, New York City, NY, United States; Pulmonary Critical Care and Sleep Medicine, Baylor College of Medicine, Houston, TX, United States; Pulmonary and Critical Care, Baylor College of Medicine, Houston, TX, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367600172</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Metformin Protects Lung Epithelial Cells Against Cigarette Smoke-Induced Lipo-Peroxidation</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4402</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4402</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378675402</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Identification of novel changes in skeletal muscle proteome after sildenafil treatment</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Physiology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>American Physiological Society</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379374962</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during &amp;lt;em&amp;gt;Mycoplasma pneumoniae&amp;lt;/em&amp;gt; Infection</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona College of Engineering, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Center for Biomedical and Informatics, University of Arizona Health Sciences, Tucson, Arizona, USA.; Northwest Healthcare, Tucson, Arizona, USA.; MTF Biologics, Edison, New Jersey, USA.; MTF Biologics, Edison, New Jersey, USA.; MTF Biologics, Edison, New Jersey, USA.; Department of Cellular and Molecular Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Cellular and Molecular Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387728750</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Epicardial placement of human placental membrane protects from heart injury in a swine model of myocardial infarction</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Physiological Reports</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.14814/phy2.15838</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37849042</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.14814/phy2.15838</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387979514</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388832621</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Frontiers in Immunology</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389484694</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>The Molecular Logic of Gtr1/2 and Pib2 Dependent TORC1 Regulation in Budding Yeast</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.12.06.570342</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38106135</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.12.06.570342</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389751782</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Depletion of Endothelial-Derived 2-AG Reduces Blood-Endothelial Barrier Integrity via Alteration of VE-Cadherin and the Phospho-Proteome</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202312.1004.v1</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202312.1004.v1</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,75 +2105,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Sarver Heart Cntr, Univ of Arizona, Tucson, AZ; Sarver Heart Cntr, Univ of Arizona, Tucson, AZ; Univ of Minnesota, Minneapolis, MN; Sarver Heart Cntr, Univ of Arizona, Tucson, AZ; College of Medicine, Univ of Arizona, Tucson, AZ; College of Medicine, Univ of Arizona, Tucson, AZ; Tulane Univestiy Sch of Medicine, New Orleans, LA; Pathology, New York Univ, New York, NY; College of Engineering, Univ of Arizona, Tucson, AZ; Univ of Arizona, tucson, AZ; Sarver Heart Cntr, Univ of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389956759</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Abstract 17096: Immune Modulation to Treat Ischemic Heart Failure</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.148.suppl_1.17096</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.148.suppl_1.17096</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4390470951</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Depletion of Endothelial-Derived 2-AG Reduces Blood-Endothelial Barrier Integrity via Alteration of VE-Cadherin and the Phospho-Proteome</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-12-30</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms25010531</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38203706</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms25010531</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Paul R Langlais_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Paul R Langlais_2023.xlsx
@@ -447,47 +447,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jin Ou, Eric M. Lewandowski, Yanmei Hu, Austin A. Lipinski, Ali Aljasser, Mariliz Colon-Ascanio, Ryan T. Morgan, Lian Jacobs, Xiujun Zhang, Melissa J. Bikowitz, Paul Langlais, Haozhou Tan, Jun Wang, Yu Chen, John S. Choy</t>
+          <t>Shreya Sangam, Xutong Sun, Tae‐Hwi Schwantes‐An, Manivannan Yegambaram, Qing Lu, Yingjie Shi, Todd Cook, Amanda Fisher, Andrea L. Frump, Alan Coleman, Yanan Sun, Shuxin Liang, Howard C. Crawford, Katie A. Lutz, Avinash D. Maun, Michael W. Pauciulo, Jason H. Karnes, Ketul R Chaudhary, Duncan J. Stewart, Paul Langlais, Mohit Jain, Mona Alotaibi, Tim Lahm, Yan Jin, Haiwei Gu, Haiyang Tang, William C. Nichols, Stephen M. Black, Ankit A. Desai</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Drug Discovery Department, Moffit Cancer Center, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America</t>
+          <t>Department of Clinical Translational Sciences,; Department of Medicine and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medical &amp; Molecular Genetics, Indiana University, Indianapolis, Indiana;; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medicine and; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Department of Medicine and; Department of Medicine and; Department of Medicine and; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; College of Veterinary Medicine, Northwest A &amp; F University, Yangling, China;; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Henry Ford Pancreatic Cancer Center, Henry Ford Hospital, Detroit, Michigan;; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Department of Medicine and; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Department of Pharmacy Practice and Science, R. Ken Coit College of Pharmacy, and; Dalhousie University, 3688, Physiology and Biophysics, Halifax, Nova Scotia, Canada; Department of Medicine, Ottawa Hospital Research Institute, Ottawa, Ontario, Canada;; University of Arizona, Medicine, Tucson, United States; Department of Medicine and; University of California San Diego, 8784, Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, La Jolla, California, United States; Department of Medicine and; Department of Medicine, National Jewish Health, Denver, Colorado; Richard L. Roudebush Veterans Affairs Medical Center, Indianapolis, Indiana; and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medicine and</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386317149</t>
+          <t>https://openalex.org/W4324027830</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A yeast-based system to study SARS-CoV-2 Mpro structure and to identify nirmatrelvir resistant mutations</t>
+          <t>SOX17 Deficiency Mediates Pulmonary Hypertension: At the Crossroads of Sex, Metabolism, and Genetics</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-04-15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PLOS Pathogens</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Public Library of Science</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.ppat.1011592</t>
+          <t>https://doi.org/10.1164/rccm.202203-0450oc</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37651467</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36913491</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.ppat.1011592</t>
+          <t>https://doi.org/10.1164/rccm.202203-0450oc</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -534,47 +534,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shreya Sangam, Xutong Sun, Tae‐Hwi Schwantes‐An, Manivannan Yegambaram, Qing Lu, Yingjie Shi, Todd Cook, Amanda Fisher, Andrea L. Frump, Alan Coleman, Yanan Sun, Shuxin Liang, Howard C. Crawford, Katie A. Lutz, Avinash D. Maun, Michael W. Pauciulo, Jason H. Karnes, Ketul R Chaudhary, Duncan J. Stewart, Paul Langlais, Mohit Jain, Mona Alotaibi, Tim Lahm, Yan Jin, Haiwei Gu, Haiyang Tang, William C. Nichols, Stephen M. Black, Ankit A. Desai</t>
+          <t>Jin Ou, Eric M. Lewandowski, Yanmei Hu, Austin A. Lipinski, Ali Aljasser, Mariliz Colon-Ascanio, Ryan T. Morgan, Lian Jacobs, Xiujun Zhang, Melissa J. Bikowitz, Paul Langlais, Haozhou Tan, Jun Wang, Yu Chen, John S. Choy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Department of Clinical Translational Sciences,; Department of Medicine and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medical &amp; Molecular Genetics, Indiana University, Indianapolis, Indiana;; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medicine and; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Department of Medicine and; Department of Medicine and; Department of Medicine and; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; College of Veterinary Medicine, Northwest A &amp; F University, Yangling, China;; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Henry Ford Pancreatic Cancer Center, Henry Ford Hospital, Detroit, Michigan;; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Department of Medicine and; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Department of Pharmacy Practice and Science, R. Ken Coit College of Pharmacy, and; Dalhousie University, 3688, Physiology and Biophysics, Halifax, Nova Scotia, Canada; Department of Medicine, Ottawa Hospital Research Institute, Ottawa, Ontario, Canada;; University of Arizona, Medicine, Tucson, United States; Department of Medicine and; University of California San Diego, 8784, Medicine, Division of Pulmonary, Critical Care and Sleep Medicine, La Jolla, California, United States; Department of Medicine and; Department of Medicine, National Jewish Health, Denver, Colorado; Richard L. Roudebush Veterans Affairs Medical Center, Indianapolis, Indiana; and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, Guangzhou, China;; Department of Pediatrics, University of Cincinnati College of Medicine, Cincinnati, Ohio;; Division of Human Genetics, Cincinnati Children’s Hospital Medical Center and; Center for Translational Science, Florida International University, Port Saint Lucie, Florida;; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, and; Department of Medicine and</t>
+          <t>Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Drug Discovery Department, Moffit Cancer Center, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, New Jersey, United States of America; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, Florida, United States of America; Department of Biology, School of Arts and Sciences, The Catholic University of America, Washington, Washington DC, United States of America</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324027830</t>
+          <t>https://openalex.org/W4386317149</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SOX17 Deficiency Mediates Pulmonary Hypertension: At the Crossroads of Sex, Metabolism, and Genetics</t>
+          <t>A yeast-based system to study SARS-CoV-2 Mpro structure and to identify nirmatrelvir resistant mutations</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-04-15</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>PLOS Pathogens</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Public Library of Science</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202203-0450oc</t>
+          <t>https://doi.org/10.1371/journal.ppat.1011592</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36913491</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37651467</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202203-0450oc</t>
+          <t>https://doi.org/10.1371/journal.ppat.1011592</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Sara S. Parker, Kenneth Tran Ly, Adam Grant, Jillian A Sweetland, Ashley M Wang, James D Parker, Mackenzie R. Roman, Kathylynn Saboda, Denise J. Roe, Megha Padi, Charles W. Wolgemuth, Paul Langlais, Ghassan Mouneimne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+          <t>Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Cancer Biology Program, University of Arizona Cancer Center 2 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona 3 , Tucson, AZ, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; Cancer Biology Program, University of Arizona Cancer Center 2 , Tucson, AZ, USA; Johns Hopkins Physical Sciences-Oncology Center, Johns Hopkins University 7 , Baltimore, MD, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona 3 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307974510</t>
+          <t>https://openalex.org/W4321747788</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
+          <t>EVL and MIM/MTSS1 regulate actin cytoskeletal remodeling to promote dendritic filopodia in neurons</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Metabolic Syndrome and Related Disorders</t>
+          <t>Journal of Cell Biology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mary Ann Liebert, Inc.</t>
+          <t>Rockefeller University Press</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1089/met.2022.0062</t>
+          <t>https://doi.org/10.1083/jcb.202106081</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36828364</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1089/met.2022.0062</t>
+          <t>https://doi.org/10.1083/jcb.202106081</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sara S. Parker, Kenneth Tran Ly, Adam Grant, Jillian A Sweetland, Ashley M Wang, James D Parker, Mackenzie R. Roman, Kathylynn Saboda, Denise J. Roe, Megha Padi, Charles W. Wolgemuth, Paul Langlais, Ghassan Mouneimne</t>
+          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Cancer Biology Program, University of Arizona Cancer Center 2 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona 3 , Tucson, AZ, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; Cancer Biology Program, University of Arizona Cancer Center 2 , Tucson, AZ, USA; Johns Hopkins Physical Sciences-Oncology Center, Johns Hopkins University 7 , Baltimore, MD, USA; University of Arizona Cancer Center and Mel and Enid Zuckerman College of Public Health, University of Arizona 4 , Tucson, AZ, USA; Division of Endocrinology, Department of Medicine, College of Medicine, University of Arizona 3 , Tucson, AZ, USA; Department of Cellular and Molecular Medicine, College of Medicine, University of Arizona 1 , Tucson, AZ, USA</t>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321747788</t>
+          <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EVL and MIM/MTSS1 regulate actin cytoskeletal remodeling to promote dendritic filopodia in neurons</t>
+          <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Journal of Cell Biology</t>
+          <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rockefeller University Press</t>
+          <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1083/jcb.202106081</t>
+          <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36828364</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1083/jcb.202106081</t>
+          <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1143,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tasmia Ahmed, Aaron Ramonett, Eun-A Kwak, Sanjay Kumar, Paola Cruz Flores, Hannah R. Ortiz, Paul Langlais, Karthikeyan Mythreye, Nam Y. Lee</t>
+          <t>Rinku Skaria, Marissa A. Lopez-Pier, Brij S Kathuria, Christian Leber, Paul Langlais, Shravan Aras, Zain Khalpey, Pamela Hitscherich, Evangelia Chnari, Marc Long, Jared M. Churko, Raymond B. Runyan, John P. Konhilas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+          <t>Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona College of Engineering, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Center for Biomedical and Informatics, University of Arizona Health Sciences, Tucson, Arizona, USA.; Northwest Healthcare, Tucson, Arizona, USA.; MTF Biologics, Edison, New Jersey, USA; MTF Biologics, Edison, New Jersey, USA; MTF Biologics, Edison, New Jersey, USA; Department of Cellular and Molecular Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Cellular and Molecular Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365793553</t>
+          <t>https://openalex.org/W4387728750</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Abstract 1628: Endothelial tip and stalk cell specification requires BMP9-induced βIV-spectrin expression during nascent vessel sprouting</t>
+          <t>Epicardial placement of human placental membrane protects from heart injury in a swine model of myocardial infarction</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Journal of Biological Chemistry</t>
+          <t>Physiological Reports</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jbc.2023.104044</t>
+          <t>https://doi.org/10.14814/phy2.15838</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37849042</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jbc.2023.104044</t>
+          <t>https://doi.org/10.14814/phy2.15838</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,57 +1230,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hannah R. Ortiz, Paola Cruz Flores, Aaron Ramonett, Tasmia Ahmed, Nathan A. Ellis, Paul Langlais, Karthikeyan Mythreye, Nam Y. Lee</t>
+          <t>Tasmia Ahmed, Aaron Ramonett, Eun-A Kwak, Sanjay Kumar, Paola Cruz Flores, Hannah R. Ortiz, Paul Langlais, Karthikeyan Mythreye, Nam Y. Lee</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Alabama Birmingham; University of Arizona</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366770738</t>
+          <t>https://openalex.org/W4365793553</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Structural remodeling of the endoplasmic reticulum in response to extracellular signals requires αTAT1-induced microtubule acetylation</t>
+          <t>Abstract 1628: Endothelial tip and stalk cell specification requires BMP9-induced βIV-spectrin expression during nascent vessel sprouting</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-04-21</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Journal of Biological Chemistry</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.04.20.537623</t>
+          <t>https://doi.org/10.1016/j.jbc.2023.104044</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37131821</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.04.20.537623</t>
+          <t>https://doi.org/10.1016/j.jbc.2023.104044</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,57 +1317,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joselyn Rojas-Quintero, Jeff Kue, Paul Langlais, S.M. Cloonan, Iván O. Rosas, Francesca Polverino</t>
+          <t>Hannah R. Ortiz, Paola Cruz Flores, Aaron Ramonett, Tasmia Ahmed, Nathan A. Ellis, Paul Langlais, Karthikeyan Mythreye, Nam Y. Lee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pulmonary Critical Care Sleep dept, Baylor College of Medicine, Houston, TX, United States; Pulmonary Critical Care Sleep dept, Baylor College of Medicine, Houston, TX, United States; 2Proteomics Lab, Department of Medicine, University of Arizona, University of Arizona, Tucson, AZ, United States; Pulmonary, Weill Cornell Medical College, New York City, NY, United States; Pulmonary Critical Care and Sleep Medicine, Baylor College of Medicine, Houston, TX, United States; Pulmonary and Critical Care, Baylor College of Medicine, Houston, TX, United States</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Alabama Birmingham; University of Arizona</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367600172</t>
+          <t>https://openalex.org/W4366770738</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Metformin Protects Lung Epithelial Cells Against Cigarette Smoke-Induced Lipo-Peroxidation</t>
+          <t>Structural remodeling of the endoplasmic reticulum in response to extracellular signals requires αTAT1-induced microtubule acetylation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cold Spring Harbor Laboratory</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.04.20.537623</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4402</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37131821</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4402</t>
+          <t>https://doi.org/10.1101/2023.04.20.537623</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Linda Wu, Luis Garcı́a, Austin A. Lipinski, Paul Langlais, Dawn K. Coletta</t>
+          <t>Joselyn Rojas-Quintero, Jeff Kue, Paul Langlais, S.M. Cloonan, Iván O. Rosas, Francesca Polverino</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>Pulmonary Critical Care Sleep dept, Baylor College of Medicine, Houston, TX, United States; Pulmonary Critical Care Sleep dept, Baylor College of Medicine, Houston, TX, United States; 2Proteomics Lab, Department of Medicine, University of Arizona, University of Arizona, Tucson, AZ, United States; Pulmonary, Weill Cornell Medical College, New York City, NY, United States; Pulmonary Critical Care and Sleep Medicine, Baylor College of Medicine, Houston, TX, United States; Pulmonary and Critical Care, Baylor College of Medicine, Houston, TX, United States</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378675402</t>
+          <t>https://openalex.org/W4367600172</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Identification of novel changes in skeletal muscle proteome after sildenafil treatment</t>
+          <t>Metformin Protects Lung Epithelial Cells Against Cigarette Smoke-Induced Lipo-Peroxidation</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Physiology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>American Physiological Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4402</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4402</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,57 +1491,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
+          <t>Linda Wu, Luis Garcı́a, Austin A. Lipinski, Paul Langlais, Dawn K. Coletta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379374962</t>
+          <t>https://openalex.org/W4378675402</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during &amp;lt;em&amp;gt;Mycoplasma pneumoniae&amp;lt;/em&amp;gt; Infection</t>
+          <t>Identification of novel changes in skeletal muscle proteome after sildenafil treatment</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Physiology</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>American Physiological Society</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
+          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,57 +1578,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa B. Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Natalie Iannuzo, Alane Blythe C. Dy, Stefano Guerra, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383556481</t>
+          <t>https://openalex.org/W4379374962</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
+          <t>The Impact of CC16 on Pulmonary Epithelial-Driven Host Responses during &amp;lt;em&amp;gt;Mycoplasma pneumoniae&amp;lt;/em&amp;gt; Infection</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Frontiers in Physiology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
+          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
+          <t>https://doi.org/10.20944/preprints202306.0270.v1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rinku Skaria, Marissa A. Lopez-Pier, Brij S Kathuria, Christian Leber, Paul Langlais, Shravan Aras, Zain Khalpey, Pamela Hitscherich, Evangelia Chnari, Marc Long, Jared M. Churko, Raymond B. Runyan, John P. Konhilas</t>
+          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Biomedical Engineering, University of Arizona College of Engineering, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Center for Biomedical and Informatics, University of Arizona Health Sciences, Tucson, Arizona, USA.; Northwest Healthcare, Tucson, Arizona, USA.; MTF Biologics, Edison, New Jersey, USA.; MTF Biologics, Edison, New Jersey, USA.; MTF Biologics, Edison, New Jersey, USA.; Department of Cellular and Molecular Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Cellular and Molecular Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.; Department of Physiology, University of Arizona College of Medicine, Tucson, Arizona, USA</t>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387728750</t>
+          <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Epicardial placement of human placental membrane protects from heart injury in a swine model of myocardial infarction</t>
+          <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Physiological Reports</t>
+          <t>Frontiers in Physiology</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14814/phy2.15838</t>
+          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37849042</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14814/phy2.15838</t>
+          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>Department of Molecular and Cellular Biology; Department of Molecular and Cellular Biology; Department of Medicine and the; Department of Medicine and the; Department of Molecular and Cellular Biology; University of Arizona</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
